--- a/swing_strategy_vix_sim_balanced_20260121.xlsx
+++ b/swing_strategy_vix_sim_balanced_20260121.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X85"/>
+  <dimension ref="A1:X67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,7 +581,7 @@
         <v>53.2</v>
       </c>
       <c r="G2" t="n">
-        <v>59.11</v>
+        <v>58.18</v>
       </c>
       <c r="H2" t="n">
         <v>81.53</v>
@@ -747,55 +747,55 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WMS</t>
+          <t>WTS</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>155.07</v>
+        <v>289.31</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>154.64 - 156.78</t>
+          <t>290.15 - 294.14</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>155.71</v>
+        <v>292.15</v>
       </c>
       <c r="F4" t="n">
-        <v>147.69</v>
+        <v>277.18</v>
       </c>
       <c r="G4" t="n">
-        <v>165.18</v>
+        <v>303.13</v>
       </c>
       <c r="H4" t="n">
-        <v>76.20999999999999</v>
+        <v>75</v>
       </c>
       <c r="I4" t="n">
         <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="K4" t="n">
         <v>0.19</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="M4" t="n">
-        <v>0.28</v>
+        <v>0.18</v>
       </c>
       <c r="N4" t="n">
-        <v>77764487</v>
+        <v>27406631</v>
       </c>
       <c r="O4" t="n">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="Q4" t="n">
-        <v>12058939392</v>
+        <v>9649333248</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -808,11 +808,11 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>92.09999999999999</v>
+        <v>90.87</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>明确吸筹</t>
+          <t>极度缩量(隐蔽吸筹)</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -839,55 +839,55 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WTS</t>
+          <t>HUBG</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>289.31</v>
+        <v>45.98</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>290.15 - 294.14</t>
+          <t>45.86 - 46.49</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>292.15</v>
+        <v>46.17</v>
       </c>
       <c r="F5" t="n">
-        <v>277.18</v>
+        <v>43.79</v>
       </c>
       <c r="G5" t="n">
-        <v>307.22</v>
+        <v>47.91</v>
       </c>
       <c r="H5" t="n">
-        <v>75</v>
+        <v>70.70999999999999</v>
       </c>
       <c r="I5" t="n">
         <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="K5" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="L5" t="n">
-        <v>0.12</v>
+        <v>-0.05</v>
       </c>
       <c r="M5" t="n">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="N5" t="n">
-        <v>27406631</v>
+        <v>60578607</v>
       </c>
       <c r="O5" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>0.67</v>
+        <v>0.37</v>
       </c>
       <c r="Q5" t="n">
-        <v>9649333248</v>
+        <v>2814876160</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>90.87</v>
+        <v>81.33</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
@@ -931,59 +931,59 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HUBG</t>
+          <t>DLTR</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>45.98</v>
+        <v>134.06</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>45.86 - 46.49</t>
+          <t>134.91 - 136.76</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>46.17</v>
+        <v>135.83</v>
       </c>
       <c r="F6" t="n">
-        <v>43.79</v>
+        <v>128.89</v>
       </c>
       <c r="G6" t="n">
-        <v>48.41</v>
+        <v>140.92</v>
       </c>
       <c r="H6" t="n">
-        <v>70.70999999999999</v>
+        <v>86.8</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.21</v>
+        <v>0.05</v>
       </c>
       <c r="K6" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="M6" t="n">
         <v>0.2</v>
       </c>
-      <c r="L6" t="n">
-        <v>-0.05</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.06</v>
-      </c>
       <c r="N6" t="n">
-        <v>60578607</v>
+        <v>198853187</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>0.37</v>
+        <v>0.61</v>
       </c>
       <c r="Q6" t="n">
-        <v>2814876160</v>
+        <v>27343927296</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -992,11 +992,11 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>81.33</v>
+        <v>76.7</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>极度缩量(隐蔽吸筹)</t>
+          <t>明确吸筹</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -1023,59 +1023,59 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>EXPD</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>134.06</v>
+        <v>159.12</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>134.91 - 136.76</t>
+          <t>158.85 - 161.05</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>135.83</v>
+        <v>159.95</v>
       </c>
       <c r="F7" t="n">
-        <v>128.89</v>
+        <v>151.72</v>
       </c>
       <c r="G7" t="n">
-        <v>145.58</v>
+        <v>165.99</v>
       </c>
       <c r="H7" t="n">
-        <v>86.8</v>
+        <v>82.88</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05</v>
+        <v>-0.03</v>
       </c>
       <c r="K7" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09</v>
+        <v>-0.04</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2</v>
+        <v>0.37</v>
       </c>
       <c r="N7" t="n">
-        <v>198853187</v>
+        <v>134020931</v>
       </c>
       <c r="O7" t="n">
-        <v>1.16</v>
+        <v>1.04</v>
       </c>
       <c r="P7" t="n">
-        <v>0.61</v>
+        <v>0.76</v>
       </c>
       <c r="Q7" t="n">
-        <v>27343927296</v>
+        <v>21595531264</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1084,11 +1084,11 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>76.7</v>
+        <v>71.7</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>明确吸筹</t>
+          <t>强趋势回撤</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1115,55 +1115,55 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EXPD</t>
+          <t>REVG</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>159.12</v>
+        <v>66.41</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>158.85 - 161.05</t>
+          <t>66.06 - 66.97</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>159.95</v>
+        <v>66.52</v>
       </c>
       <c r="F8" t="n">
-        <v>151.72</v>
+        <v>63.08</v>
       </c>
       <c r="G8" t="n">
-        <v>171.32</v>
+        <v>69.04000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>82.88</v>
+        <v>88.22</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.03</v>
+        <v>-0.31</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01</v>
+        <v>-0.27</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.04</v>
+        <v>0.11</v>
       </c>
       <c r="M8" t="n">
-        <v>0.37</v>
+        <v>0.22</v>
       </c>
       <c r="N8" t="n">
-        <v>134020931</v>
+        <v>48806145</v>
       </c>
       <c r="O8" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="P8" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="Q8" t="n">
-        <v>21595531264</v>
+        <v>3241216256</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>71.7</v>
+        <v>63.9</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>防御性对冲</t>
         </is>
       </c>
     </row>
@@ -1207,82 +1207,82 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>REVG</t>
+          <t>CVNA</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>66.41</v>
+        <v>442.29</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>66.06 - 66.97</t>
+          <t>440.01 - 446.11</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>66.52</v>
+        <v>443.06</v>
       </c>
       <c r="F9" t="n">
-        <v>63.08</v>
+        <v>420.17</v>
       </c>
       <c r="G9" t="n">
-        <v>70.33</v>
+        <v>465.78</v>
       </c>
       <c r="H9" t="n">
-        <v>88.22</v>
+        <v>87.25</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.31</v>
+        <v>0.78</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.27</v>
+        <v>0.61</v>
       </c>
       <c r="L9" t="n">
-        <v>0.11</v>
+        <v>0.55</v>
       </c>
       <c r="M9" t="n">
-        <v>0.22</v>
+        <v>0.68</v>
       </c>
       <c r="N9" t="n">
-        <v>48806145</v>
+        <v>116947000</v>
       </c>
       <c r="O9" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>0.72</v>
+        <v>0.09</v>
       </c>
       <c r="Q9" t="n">
-        <v>3241216256</v>
+        <v>95889997824</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>主升浪建仓/加仓</t>
+          <t>资金明确派发，禁止交易</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>63.9</v>
+        <v>27.27</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>强趋势回撤</t>
+          <t>派发阶段</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>trend_pullback</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>mid</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -1299,55 +1299,55 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CVNA</t>
+          <t>BWA</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>442.29</v>
+        <v>46.54</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>440.01 - 446.11</t>
+          <t>46.21 - 46.86</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>443.06</v>
+        <v>46.54</v>
       </c>
       <c r="F10" t="n">
-        <v>420.17</v>
+        <v>44.13</v>
       </c>
       <c r="G10" t="n">
-        <v>459.84</v>
+        <v>48.31</v>
       </c>
       <c r="H10" t="n">
-        <v>87.25</v>
+        <v>79.95</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0.78</v>
+        <v>-0.32</v>
       </c>
       <c r="K10" t="n">
-        <v>0.61</v>
+        <v>-0.3</v>
       </c>
       <c r="L10" t="n">
-        <v>0.55</v>
+        <v>0.04</v>
       </c>
       <c r="M10" t="n">
-        <v>0.68</v>
+        <v>0.03</v>
       </c>
       <c r="N10" t="n">
-        <v>116947000</v>
+        <v>213928111</v>
       </c>
       <c r="O10" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="P10" t="n">
-        <v>0.09</v>
+        <v>0.65</v>
       </c>
       <c r="Q10" t="n">
-        <v>95889997824</v>
+        <v>10070925312</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>27.27</v>
+        <v>18.28</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -1379,89 +1379,89 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>防御性对冲</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BWA</t>
+          <t>WS</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>46.54</v>
+        <v>39.5</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>46.21 - 46.86</t>
+          <t>39.14 - 39.68</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>46.54</v>
+        <v>39.41</v>
       </c>
       <c r="F11" t="n">
-        <v>44.13</v>
+        <v>36.32</v>
       </c>
       <c r="G11" t="n">
-        <v>48.96</v>
+        <v>40.91</v>
       </c>
       <c r="H11" t="n">
-        <v>79.95</v>
+        <v>78.45</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.32</v>
+        <v>0.47</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.3</v>
+        <v>0.48</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="M11" t="n">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
       <c r="N11" t="n">
-        <v>213928111</v>
+        <v>50805635</v>
       </c>
       <c r="O11" t="n">
-        <v>1.04</v>
+        <v>0.53</v>
       </c>
       <c r="P11" t="n">
-        <v>0.65</v>
+        <v>-0.02</v>
       </c>
       <c r="Q11" t="n">
-        <v>10070925312</v>
+        <v>2007905664</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>资金明确派发，禁止交易</t>
+          <t>资金结构恶化，仅观察</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>18.28</v>
+        <v>54.13</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>派发阶段</t>
+          <t>高位放量分歧</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>trend_pullback</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -1471,71 +1471,71 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WS</t>
+          <t>AHL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>39.5</v>
+        <v>37.32</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>39.14 - 39.68</t>
+          <t>37.04 - 37.55</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>39.41</v>
+        <v>37.29</v>
       </c>
       <c r="F12" t="n">
-        <v>36.32</v>
+        <v>35.36</v>
       </c>
       <c r="G12" t="n">
-        <v>42.3</v>
+        <v>39.14</v>
       </c>
       <c r="H12" t="n">
-        <v>78.45</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="I12" t="n">
         <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>0.47</v>
+        <v>1.15</v>
       </c>
       <c r="K12" t="n">
-        <v>0.48</v>
+        <v>1.57</v>
       </c>
       <c r="L12" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="M12" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="N12" t="n">
-        <v>50805635</v>
+        <v>91838366</v>
       </c>
       <c r="O12" t="n">
-        <v>0.53</v>
+        <v>1.02</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.02</v>
+        <v>1.64</v>
       </c>
       <c r="Q12" t="n">
-        <v>2007905664</v>
+        <v>3427407872</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1544,16 +1544,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>54.13</v>
+        <v>44.26</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>高位放量分歧</t>
+          <t>控盘减弱预警</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
@@ -1685,7 +1685,7 @@
         <v>116.61</v>
       </c>
       <c r="G14" t="n">
-        <v>127.67</v>
+        <v>129.29</v>
       </c>
       <c r="H14" t="n">
         <v>90.52</v>
@@ -1777,7 +1777,7 @@
         <v>14.82</v>
       </c>
       <c r="G15" t="n">
-        <v>16.23</v>
+        <v>17.09</v>
       </c>
       <c r="H15" t="n">
         <v>83.7</v>
@@ -1820,7 +1820,7 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>40.69</v>
+        <v>38.75</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>38.9</v>
+        <v>37.04</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -1941,59 +1941,59 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>OSIS</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>288</v>
+        <v>204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>285.29 - 289.26</t>
+          <t>202.60 - 205.42</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>287.28</v>
+        <v>204.01</v>
       </c>
       <c r="F17" t="n">
-        <v>268.92</v>
+        <v>193.45</v>
       </c>
       <c r="G17" t="n">
-        <v>298.21</v>
+        <v>211.75</v>
       </c>
       <c r="H17" t="n">
-        <v>85.06</v>
+        <v>78.48999999999999</v>
       </c>
       <c r="I17" t="n">
         <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0.15</v>
+        <v>-0.53</v>
       </c>
       <c r="K17" t="n">
-        <v>0.12</v>
+        <v>-0.51</v>
       </c>
       <c r="L17" t="n">
-        <v>0.12</v>
+        <v>-0.09</v>
       </c>
       <c r="M17" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="N17" t="n">
-        <v>16977873</v>
+        <v>250106129</v>
       </c>
       <c r="O17" t="n">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>0.74</v>
+        <v>0.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>4889627136</v>
+        <v>51021651968</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>37.59</v>
+        <v>36.17</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -2033,87 +2033,87 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>VMI</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>204</v>
+        <v>433.64</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>202.60 - 205.42</t>
+          <t>433.06 - 439.05</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>204.01</v>
+        <v>436.06</v>
       </c>
       <c r="F18" t="n">
-        <v>193.45</v>
+        <v>413.62</v>
       </c>
       <c r="G18" t="n">
-        <v>211.75</v>
+        <v>452.52</v>
       </c>
       <c r="H18" t="n">
-        <v>78.48999999999999</v>
+        <v>75.18000000000001</v>
       </c>
       <c r="I18" t="n">
         <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.53</v>
+        <v>0.19</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.51</v>
+        <v>0.21</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.09</v>
+        <v>0.02</v>
       </c>
       <c r="M18" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="N18" t="n">
-        <v>250106129</v>
+        <v>19699639</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="P18" t="n">
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
       <c r="Q18" t="n">
-        <v>51021651968</v>
+        <v>8559400960</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>资金结构恶化，仅观察</t>
+          <t>量价支持不足</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>36.17</v>
+        <v>31.88</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>控盘减弱预警</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>防御性对冲</t>
         </is>
       </c>
     </row>
@@ -2125,77 +2125,77 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FOXA</t>
+          <t>BCO</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>71.95999999999999</v>
+        <v>123.48</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>71.66 - 72.65</t>
+          <t>122.70 - 124.40</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>72.16</v>
+        <v>123.55</v>
       </c>
       <c r="F19" t="n">
-        <v>68.44</v>
+        <v>117.16</v>
       </c>
       <c r="G19" t="n">
-        <v>74.89</v>
+        <v>130.69</v>
       </c>
       <c r="H19" t="n">
-        <v>81.63</v>
+        <v>77.61</v>
       </c>
       <c r="I19" t="n">
+        <v>4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="N19" t="n">
+        <v>41545506</v>
+      </c>
+      <c r="O19" t="n">
         <v>1</v>
       </c>
-      <c r="J19" t="n">
-        <v>-0.28</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-0.26</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="N19" t="n">
-        <v>208361696</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.19</v>
-      </c>
       <c r="P19" t="n">
-        <v>0.7</v>
+        <v>0.62</v>
       </c>
       <c r="Q19" t="n">
-        <v>31946117120</v>
+        <v>5144459264</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>资金结构恶化，仅观察</t>
+          <t>阶段不明，仅观察</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>21.23</v>
+        <v>64.05</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>控盘减弱预警</t>
+          <t>极度缩量(隐蔽吸筹)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>trend_pullback</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>防御性对冲</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
@@ -2217,82 +2217,82 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TKR</t>
+          <t>ECPG</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>90.65000000000001</v>
+        <v>55.15</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>90.27 - 91.52</t>
+          <t>55.29 - 56.05</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>90.89</v>
+        <v>55.67</v>
       </c>
       <c r="F20" t="n">
-        <v>86.2</v>
+        <v>52.82</v>
       </c>
       <c r="G20" t="n">
-        <v>97.64</v>
+        <v>57.76</v>
       </c>
       <c r="H20" t="n">
-        <v>72.17</v>
+        <v>76.13</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.15</v>
+        <v>1.44</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.15</v>
+        <v>1.52</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="N20" t="n">
-        <v>69655588</v>
+        <v>22303676</v>
       </c>
       <c r="O20" t="n">
-        <v>0.97</v>
+        <v>1.08</v>
       </c>
       <c r="P20" t="n">
-        <v>0.74</v>
+        <v>-2.47</v>
       </c>
       <c r="Q20" t="n">
-        <v>6314278912</v>
+        <v>1269099264</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>量价支持不足</t>
+          <t>阶段不明，仅观察</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>40.44</v>
+        <v>60</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>极度缩量(隐蔽吸筹)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>mid</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
@@ -2309,151 +2309,151 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>VMI</t>
+          <t>SEE</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>433.64</v>
+        <v>41.71</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>433.06 - 439.05</t>
+          <t>41.43 - 42.00</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>436.06</v>
+        <v>41.72</v>
       </c>
       <c r="F21" t="n">
-        <v>413.62</v>
+        <v>39.56</v>
       </c>
       <c r="G21" t="n">
-        <v>452.52</v>
+        <v>43.3</v>
       </c>
       <c r="H21" t="n">
-        <v>75.18000000000001</v>
+        <v>76.01000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>0.19</v>
+        <v>1.78</v>
       </c>
       <c r="K21" t="n">
-        <v>0.21</v>
+        <v>1.75</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.16</v>
+        <v>0.4</v>
       </c>
       <c r="N21" t="n">
-        <v>19699639</v>
+        <v>147124524</v>
       </c>
       <c r="O21" t="n">
-        <v>0.96</v>
+        <v>1.03</v>
       </c>
       <c r="P21" t="n">
-        <v>0.68</v>
+        <v>0.59</v>
       </c>
       <c r="Q21" t="n">
-        <v>8559400960</v>
+        <v>6136563712</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>量价支持不足</t>
+          <t>阶段不明，仅观察</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>31.88</v>
+        <v>58.68</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>明确吸筹</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>mid</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>防御性对冲</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BCO</t>
+          <t>GOOG</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>123.48</v>
+        <v>322.16</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>122.70 - 124.40</t>
+          <t>321.65 - 326.10</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>123.55</v>
+        <v>323.88</v>
       </c>
       <c r="F22" t="n">
-        <v>117.16</v>
+        <v>307.21</v>
       </c>
       <c r="G22" t="n">
-        <v>130.69</v>
+        <v>336.11</v>
       </c>
       <c r="H22" t="n">
-        <v>77.61</v>
+        <v>87.64</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
       <c r="K22" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="L22" t="n">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="M22" t="n">
-        <v>0.44</v>
+        <v>0.35</v>
       </c>
       <c r="N22" t="n">
-        <v>41545506</v>
+        <v>5407000000</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0.61</v>
       </c>
       <c r="P22" t="n">
-        <v>0.62</v>
+        <v>0.32</v>
       </c>
       <c r="Q22" t="n">
-        <v>5144459264</v>
+        <v>3889061953536</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -2462,16 +2462,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>64.05</v>
+        <v>57.9</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>极度缩量(隐蔽吸筹)</t>
+          <t>强趋势回撤</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
@@ -2493,59 +2493,59 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ECPG</t>
+          <t>HALO</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>55.15</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>55.29 - 56.05</t>
+          <t>69.81 - 70.78</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>55.67</v>
+        <v>70.29000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>52.82</v>
+        <v>66.65000000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>57.76</v>
+        <v>72.95999999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>76.13</v>
+        <v>73.26000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>1.44</v>
+        <v>0.28</v>
       </c>
       <c r="K23" t="n">
-        <v>1.52</v>
+        <v>0.36</v>
       </c>
       <c r="L23" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.05</v>
+        <v>1.24</v>
       </c>
       <c r="N23" t="n">
-        <v>22303676</v>
+        <v>117597000</v>
       </c>
       <c r="O23" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="P23" t="n">
-        <v>-2.47</v>
+        <v>0.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>1269099264</v>
+        <v>8282356736</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>63</v>
+        <v>53.92</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>极度缩量(隐蔽吸筹)</t>
+          <t>强趋势回撤</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>trend_pullback</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
@@ -2585,59 +2585,59 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WWD</t>
+          <t>ROL</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>328.21</v>
+        <v>63.11</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>323.98 - 328.51</t>
+          <t>62.40 - 63.28</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>326.24</v>
+        <v>62.84</v>
       </c>
       <c r="F24" t="n">
-        <v>309.26</v>
+        <v>59.57</v>
       </c>
       <c r="G24" t="n">
-        <v>351.97</v>
+        <v>65.88</v>
       </c>
       <c r="H24" t="n">
-        <v>86.04000000000001</v>
+        <v>73.31999999999999</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>0.65</v>
+        <v>0.19</v>
       </c>
       <c r="K24" t="n">
-        <v>0.64</v>
+        <v>0.2</v>
       </c>
       <c r="L24" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="M24" t="n">
-        <v>0.19</v>
+        <v>0.36</v>
       </c>
       <c r="N24" t="n">
-        <v>59996788</v>
+        <v>481150554</v>
       </c>
       <c r="O24" t="n">
-        <v>0.93</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P24" t="n">
-        <v>0.52</v>
+        <v>0.86</v>
       </c>
       <c r="Q24" t="n">
-        <v>19691544576</v>
+        <v>30365411328</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -2646,16 +2646,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>62.63</v>
+        <v>52.11</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>强趋势回撤</t>
+          <t>极度缩量(隐蔽吸筹)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
@@ -2677,59 +2677,59 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>HI</t>
+          <t>STLD</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>31.82</v>
+        <v>171.81</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>31.61 - 32.05</t>
+          <t>170.64 - 173.01</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>31.83</v>
+        <v>171.83</v>
       </c>
       <c r="F25" t="n">
-        <v>30.18</v>
+        <v>162.94</v>
       </c>
       <c r="G25" t="n">
-        <v>33.04</v>
+        <v>178.35</v>
       </c>
       <c r="H25" t="n">
-        <v>69.64</v>
+        <v>78.55</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>4.18</v>
+        <v>0.27</v>
       </c>
       <c r="K25" t="n">
-        <v>4.22</v>
+        <v>0.34</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.22</v>
+        <v>0.11</v>
       </c>
       <c r="M25" t="n">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="N25" t="n">
-        <v>70508655</v>
+        <v>146034859</v>
       </c>
       <c r="O25" t="n">
-        <v>0.93</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="P25" t="n">
-        <v>5.06</v>
+        <v>-0.1</v>
       </c>
       <c r="Q25" t="n">
-        <v>2243585536</v>
+        <v>25291220992</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -2738,16 +2738,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>61.84</v>
+        <v>50.88</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>极度缩量(隐蔽吸筹)</t>
+          <t>底部试探</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>trend_pullback</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
@@ -2769,55 +2769,55 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SEE</t>
+          <t>RL</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>41.71</v>
+        <v>360.22</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>41.43 - 42.00</t>
+          <t>358.52 - 363.49</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>41.72</v>
+        <v>361</v>
       </c>
       <c r="F26" t="n">
-        <v>39.56</v>
+        <v>342.36</v>
       </c>
       <c r="G26" t="n">
-        <v>43.3</v>
+        <v>374.67</v>
       </c>
       <c r="H26" t="n">
-        <v>76.01000000000001</v>
+        <v>79.7</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>1.78</v>
+        <v>0.4</v>
       </c>
       <c r="K26" t="n">
-        <v>1.75</v>
+        <v>0.44</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="N26" t="n">
-        <v>147124524</v>
+        <v>38759382</v>
       </c>
       <c r="O26" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="P26" t="n">
-        <v>0.59</v>
+        <v>0.47</v>
       </c>
       <c r="Q26" t="n">
-        <v>6136563712</v>
+        <v>21843976192</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2830,16 +2830,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>58.68</v>
+        <v>49.41</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>明确吸筹</t>
+          <t>极度缩量(隐蔽吸筹)</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>trend_pullback</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -2849,71 +2849,71 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>防御性对冲</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>CRS</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>322.16</v>
+        <v>332.35</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>321.65 - 326.10</t>
+          <t>328.80 - 333.38</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>323.88</v>
+        <v>331.09</v>
       </c>
       <c r="F27" t="n">
-        <v>307.21</v>
+        <v>311.85</v>
       </c>
       <c r="G27" t="n">
-        <v>336.11</v>
+        <v>347.46</v>
       </c>
       <c r="H27" t="n">
-        <v>87.64</v>
+        <v>83.84999999999999</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
       <c r="K27" t="n">
-        <v>0.35</v>
+        <v>0.46</v>
       </c>
       <c r="L27" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="M27" t="n">
-        <v>0.35</v>
+        <v>0.23</v>
       </c>
       <c r="N27" t="n">
-        <v>5407000000</v>
+        <v>49818822</v>
       </c>
       <c r="O27" t="n">
-        <v>0.61</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>0.32</v>
+        <v>0.51</v>
       </c>
       <c r="Q27" t="n">
-        <v>3889061953536</v>
+        <v>16567680000</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2922,16 +2922,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>57.9</v>
+        <v>48.94</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>强趋势回撤</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -2953,59 +2953,59 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>HALO</t>
+          <t>SPXC</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>70.43000000000001</v>
+        <v>217.9</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>69.81 - 70.78</t>
+          <t>214.37 - 217.38</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>70.29000000000001</v>
+        <v>215.87</v>
       </c>
       <c r="F28" t="n">
-        <v>66.65000000000001</v>
+        <v>204.59</v>
       </c>
       <c r="G28" t="n">
-        <v>73.73</v>
+        <v>224.14</v>
       </c>
       <c r="H28" t="n">
-        <v>73.26000000000001</v>
+        <v>79.52</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="K28" t="n">
-        <v>0.36</v>
+        <v>0.2</v>
       </c>
       <c r="L28" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="M28" t="n">
-        <v>1.24</v>
+        <v>0.13</v>
       </c>
       <c r="N28" t="n">
-        <v>117597000</v>
+        <v>49835573</v>
       </c>
       <c r="O28" t="n">
-        <v>1.06</v>
+        <v>0.98</v>
       </c>
       <c r="P28" t="n">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="Q28" t="n">
-        <v>8282356736</v>
+        <v>10859170816</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -3014,16 +3014,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>56.61</v>
+        <v>47.18</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>强趋势回撤</t>
+          <t>底部试探</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>trend_pullback</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -3033,71 +3033,71 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>BMY</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>64.33</v>
+        <v>54.22</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>63.87 - 64.76</t>
+          <t>54.05 - 54.80</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>64.31999999999999</v>
+        <v>54.42</v>
       </c>
       <c r="F29" t="n">
-        <v>60.99</v>
+        <v>51.61</v>
       </c>
       <c r="G29" t="n">
-        <v>66.76000000000001</v>
+        <v>56.48</v>
       </c>
       <c r="H29" t="n">
-        <v>73.93000000000001</v>
+        <v>63.2</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>0.41</v>
+        <v>0.82</v>
       </c>
       <c r="K29" t="n">
-        <v>0.48</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L29" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="M29" t="n">
-        <v>0.13</v>
+        <v>0.34</v>
       </c>
       <c r="N29" t="n">
-        <v>111765032</v>
+        <v>2035753027</v>
       </c>
       <c r="O29" t="n">
-        <v>0.91</v>
+        <v>0.82</v>
       </c>
       <c r="P29" t="n">
-        <v>-1.08</v>
+        <v>0.89</v>
       </c>
       <c r="Q29" t="n">
-        <v>7189844480</v>
+        <v>110378532864</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -3106,16 +3106,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>52.52</v>
+        <v>46.13</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>极度缩量(隐蔽吸筹)</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>trend_pullback</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -3137,59 +3137,59 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>IMAX</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>63.11</v>
+        <v>37.61</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>62.40 - 63.28</t>
+          <t>37.23 - 37.75</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>62.84</v>
+        <v>37.49</v>
       </c>
       <c r="F30" t="n">
-        <v>59.57</v>
+        <v>34.49</v>
       </c>
       <c r="G30" t="n">
-        <v>66.37</v>
+        <v>39.44</v>
       </c>
       <c r="H30" t="n">
-        <v>73.31999999999999</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J30" t="n">
-        <v>0.19</v>
+        <v>0.49</v>
       </c>
       <c r="K30" t="n">
-        <v>0.2</v>
+        <v>0.42</v>
       </c>
       <c r="L30" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="M30" t="n">
         <v>0.12</v>
       </c>
-      <c r="M30" t="n">
-        <v>0.36</v>
-      </c>
       <c r="N30" t="n">
-        <v>481150554</v>
+        <v>53798934</v>
       </c>
       <c r="O30" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="P30" t="n">
-        <v>0.86</v>
+        <v>0.68</v>
       </c>
       <c r="Q30" t="n">
-        <v>30365411328</v>
+        <v>2023378048</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -3198,11 +3198,11 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>52.11</v>
+        <v>45.86</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>极度缩量(隐蔽吸筹)</t>
+          <t>底部试探</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -3217,7 +3217,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>防御性对冲</t>
         </is>
       </c>
     </row>
@@ -3229,59 +3229,59 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>STLD</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>171.81</v>
+        <v>49.74</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>170.64 - 173.01</t>
+          <t>49.28 - 49.97</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>171.83</v>
+        <v>49.62</v>
       </c>
       <c r="F31" t="n">
-        <v>162.94</v>
+        <v>47.05</v>
       </c>
       <c r="G31" t="n">
-        <v>181.25</v>
+        <v>51.51</v>
       </c>
       <c r="H31" t="n">
-        <v>78.55</v>
+        <v>72.31</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0.27</v>
+        <v>0.1</v>
       </c>
       <c r="K31" t="n">
-        <v>0.34</v>
+        <v>0.04</v>
       </c>
       <c r="L31" t="n">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="M31" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="N31" t="n">
-        <v>146034859</v>
+        <v>112488952</v>
       </c>
       <c r="O31" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.1</v>
+        <v>-0.44</v>
       </c>
       <c r="Q31" t="n">
-        <v>25291220992</v>
+        <v>5595200512</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -3290,16 +3290,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>50.88</v>
+        <v>44.16</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>底部试探</t>
+          <t>极度缩量(隐蔽吸筹)</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>trend_pullback</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
@@ -3321,59 +3321,59 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>RL</t>
+          <t>MDU</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>360.22</v>
+        <v>20.51</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>358.52 - 363.49</t>
+          <t>20.38 - 20.66</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>361</v>
+        <v>20.52</v>
       </c>
       <c r="F32" t="n">
-        <v>342.36</v>
+        <v>19.46</v>
       </c>
       <c r="G32" t="n">
-        <v>374.67</v>
+        <v>21.3</v>
       </c>
       <c r="H32" t="n">
-        <v>79.7</v>
+        <v>67.98</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0.4</v>
+        <v>-0.72</v>
       </c>
       <c r="K32" t="n">
-        <v>0.44</v>
+        <v>-0.72</v>
       </c>
       <c r="L32" t="n">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="M32" t="n">
-        <v>0.34</v>
+        <v>0.06</v>
       </c>
       <c r="N32" t="n">
-        <v>38759382</v>
+        <v>205905663</v>
       </c>
       <c r="O32" t="n">
-        <v>1.02</v>
+        <v>0.84</v>
       </c>
       <c r="P32" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="Q32" t="n">
-        <v>21843976192</v>
+        <v>4223125248</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>49.41</v>
+        <v>43.36</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>trend_pullback</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>防御性对冲</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
@@ -3413,59 +3413,59 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CRS</t>
+          <t>MCHP</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>332.35</v>
+        <v>73.17</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>328.80 - 333.38</t>
+          <t>72.50 - 73.51</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>331.09</v>
+        <v>73.01000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>311.85</v>
+        <v>69.22</v>
       </c>
       <c r="G33" t="n">
-        <v>349.21</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="H33" t="n">
-        <v>83.84999999999999</v>
+        <v>71.67</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>0.44</v>
+        <v>-0.47</v>
       </c>
       <c r="K33" t="n">
-        <v>0.46</v>
+        <v>-0.82</v>
       </c>
       <c r="L33" t="n">
-        <v>0.02</v>
+        <v>-0.02</v>
       </c>
       <c r="M33" t="n">
-        <v>0.23</v>
+        <v>-0.03</v>
       </c>
       <c r="N33" t="n">
-        <v>49818822</v>
+        <v>540446834</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="P33" t="n">
-        <v>0.51</v>
+        <v>1.23</v>
       </c>
       <c r="Q33" t="n">
-        <v>16567680000</v>
+        <v>39544496128</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -3474,7 +3474,7 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>48.94</v>
+        <v>43.14</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
@@ -3500,64 +3500,64 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BMY</t>
+          <t>TXNM</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>54.22</v>
+        <v>59.3</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>54.05 - 54.80</t>
+          <t>58.85 - 59.66</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>54.42</v>
+        <v>59.26</v>
       </c>
       <c r="F34" t="n">
-        <v>51.61</v>
+        <v>56.19</v>
       </c>
       <c r="G34" t="n">
-        <v>57.38</v>
+        <v>61.51</v>
       </c>
       <c r="H34" t="n">
-        <v>63.2</v>
+        <v>65.91</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0.82</v>
+        <v>-0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.8100000000000001</v>
+        <v>-0.16</v>
       </c>
       <c r="L34" t="n">
-        <v>0.03</v>
+        <v>0.14</v>
       </c>
       <c r="M34" t="n">
-        <v>0.34</v>
+        <v>0.06</v>
       </c>
       <c r="N34" t="n">
-        <v>2035753027</v>
+        <v>108921356</v>
       </c>
       <c r="O34" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
-        <v>0.89</v>
+        <v>-1.32</v>
       </c>
       <c r="Q34" t="n">
-        <v>110378532864</v>
+        <v>6459036672</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -3566,16 +3566,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>48.44</v>
+        <v>42.98</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>极度缩量(隐蔽吸筹)</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>trend_pullback</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
@@ -3597,55 +3597,55 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SPXC</t>
+          <t>PCAR</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>217.9</v>
+        <v>119.38</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>214.37 - 217.38</t>
+          <t>118.86 - 120.51</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>215.87</v>
+        <v>119.69</v>
       </c>
       <c r="F35" t="n">
-        <v>204.59</v>
+        <v>113.51</v>
       </c>
       <c r="G35" t="n">
-        <v>233.07</v>
+        <v>124.22</v>
       </c>
       <c r="H35" t="n">
-        <v>79.52</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0.25</v>
+        <v>-0.39</v>
       </c>
       <c r="K35" t="n">
-        <v>0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="L35" t="n">
-        <v>0.23</v>
+        <v>-0.19</v>
       </c>
       <c r="M35" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="N35" t="n">
-        <v>49835573</v>
+        <v>525204359</v>
       </c>
       <c r="O35" t="n">
-        <v>0.98</v>
+        <v>0.73</v>
       </c>
       <c r="P35" t="n">
-        <v>0.77</v>
+        <v>0.11</v>
       </c>
       <c r="Q35" t="n">
-        <v>10859170816</v>
+        <v>62698893312</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>47.18</v>
+        <v>41.29</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>底部试探</t>
+          <t>强趋势回撤</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
@@ -3689,59 +3689,59 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ACAD</t>
+          <t>HWM</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>26.29</v>
+        <v>220.36</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>25.93 - 26.29</t>
+          <t>219.61 - 222.66</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>26.11</v>
+        <v>221.14</v>
       </c>
       <c r="F36" t="n">
-        <v>24.75</v>
+        <v>209.74</v>
       </c>
       <c r="G36" t="n">
-        <v>27.11</v>
+        <v>229.5</v>
       </c>
       <c r="H36" t="n">
-        <v>79.56</v>
+        <v>84.59</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.19</v>
+        <v>0.16</v>
       </c>
       <c r="K36" t="n">
-        <v>1.13</v>
+        <v>0.17</v>
       </c>
       <c r="L36" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="M36" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="N36" t="n">
-        <v>169181817</v>
+        <v>402500000</v>
       </c>
       <c r="O36" t="n">
-        <v>1.02</v>
+        <v>0.95</v>
       </c>
       <c r="P36" t="n">
-        <v>0.13</v>
+        <v>0.53</v>
       </c>
       <c r="Q36" t="n">
-        <v>4447790080</v>
+        <v>88694898688</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -3750,7 +3750,7 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>46.09</v>
+        <v>40.18</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>trend_pullback</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
@@ -3776,64 +3776,64 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>IMAX</t>
+          <t>RVLV</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>37.61</v>
+        <v>28.73</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>37.23 - 37.75</t>
+          <t>28.90 - 29.30</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>37.49</v>
+        <v>29.1</v>
       </c>
       <c r="F37" t="n">
-        <v>34.49</v>
+        <v>27.61</v>
       </c>
       <c r="G37" t="n">
-        <v>39.84</v>
+        <v>30.19</v>
       </c>
       <c r="H37" t="n">
-        <v>83.54000000000001</v>
+        <v>71.37</v>
       </c>
       <c r="I37" t="n">
         <v>5</v>
       </c>
       <c r="J37" t="n">
-        <v>0.49</v>
+        <v>0.93</v>
       </c>
       <c r="K37" t="n">
-        <v>0.42</v>
+        <v>0.92</v>
       </c>
       <c r="L37" t="n">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
       <c r="M37" t="n">
         <v>0.12</v>
       </c>
       <c r="N37" t="n">
-        <v>53798934</v>
+        <v>40415438</v>
       </c>
       <c r="O37" t="n">
-        <v>0.93</v>
+        <v>1.14</v>
       </c>
       <c r="P37" t="n">
-        <v>0.68</v>
+        <v>1.06</v>
       </c>
       <c r="Q37" t="n">
-        <v>2023378048</v>
+        <v>2049432448</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -3842,16 +3842,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>45.86</v>
+        <v>39.86</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>底部试探</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>trend_pullback</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
@@ -3873,59 +3873,59 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>FER</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>49.74</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>49.28 - 49.97</t>
+          <t>66.40 - 67.31</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>49.62</v>
+        <v>66.86</v>
       </c>
       <c r="F38" t="n">
-        <v>47.05</v>
+        <v>63.43</v>
       </c>
       <c r="G38" t="n">
-        <v>51.51</v>
+        <v>69.38</v>
       </c>
       <c r="H38" t="n">
-        <v>72.31</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="K38" t="n">
-        <v>0.04</v>
+        <v>0.32</v>
       </c>
       <c r="L38" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="M38" t="n">
-        <v>0.08</v>
+        <v>0.54</v>
       </c>
       <c r="N38" t="n">
-        <v>112488952</v>
+        <v>714984006</v>
       </c>
       <c r="O38" t="n">
-        <v>0.99</v>
+        <v>0.47</v>
       </c>
       <c r="P38" t="n">
-        <v>-0.44</v>
+        <v>-0.04</v>
       </c>
       <c r="Q38" t="n">
-        <v>5595200512</v>
+        <v>47439187968</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>44.16</v>
+        <v>39.15</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>防御性对冲</t>
         </is>
       </c>
     </row>
@@ -3965,55 +3965,55 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>GATX</t>
+          <t>GXO</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>179.02</v>
+        <v>55.05</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>177.68 - 180.15</t>
+          <t>55.31 - 56.07</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>178.91</v>
+        <v>55.69</v>
       </c>
       <c r="F39" t="n">
-        <v>169.65</v>
+        <v>52.84</v>
       </c>
       <c r="G39" t="n">
-        <v>185.7</v>
+        <v>57.78</v>
       </c>
       <c r="H39" t="n">
-        <v>66.83</v>
+        <v>66.3</v>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.08</v>
+        <v>0.79</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="L39" t="n">
         <v>0.08</v>
       </c>
       <c r="M39" t="n">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="N39" t="n">
-        <v>35678804</v>
+        <v>114493292</v>
       </c>
       <c r="O39" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="P39" t="n">
-        <v>-0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Q39" t="n">
-        <v>6387219456</v>
+        <v>6302855680</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>43.45</v>
+        <v>38.68</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>防御性对冲</t>
         </is>
       </c>
     </row>
@@ -4057,59 +4057,59 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MDU</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>20.51</v>
+        <v>929.49</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>20.38 - 20.66</t>
+          <t>922.02 - 934.85</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>20.52</v>
+        <v>928.4299999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>19.46</v>
+        <v>880.33</v>
       </c>
       <c r="G40" t="n">
-        <v>21.3</v>
+        <v>963.7</v>
       </c>
       <c r="H40" t="n">
-        <v>67.98</v>
+        <v>80.70999999999999</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.72</v>
+        <v>0.16</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.72</v>
+        <v>0.18</v>
       </c>
       <c r="L40" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="M40" t="n">
-        <v>0.06</v>
+        <v>0.27</v>
       </c>
       <c r="N40" t="n">
-        <v>205905663</v>
+        <v>126186699</v>
       </c>
       <c r="O40" t="n">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="P40" t="n">
-        <v>0.48</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Q40" t="n">
-        <v>4223125248</v>
+        <v>117621448704</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -4118,16 +4118,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>43.36</v>
+        <v>38.12</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>极度缩量(隐蔽吸筹)</t>
+          <t>强趋势回撤</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
@@ -4137,7 +4137,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>防御性对冲</t>
         </is>
       </c>
     </row>
@@ -4149,55 +4149,55 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MCHP</t>
+          <t>CACI</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>73.17</v>
+        <v>629.14</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>72.50 - 73.51</t>
+          <t>630.35 - 639.03</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>73.01000000000001</v>
+        <v>634.6900000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>69.22</v>
+        <v>591.46</v>
       </c>
       <c r="G41" t="n">
-        <v>76.78</v>
+        <v>658.5700000000001</v>
       </c>
       <c r="H41" t="n">
-        <v>71.67</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="I41" t="n">
         <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.47</v>
+        <v>0.04</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.82</v>
+        <v>0.06</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.02</v>
+        <v>0.11</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.03</v>
+        <v>0.13</v>
       </c>
       <c r="N41" t="n">
-        <v>540446834</v>
+        <v>22079710</v>
       </c>
       <c r="O41" t="n">
-        <v>0.99</v>
+        <v>1.03</v>
       </c>
       <c r="P41" t="n">
-        <v>1.23</v>
+        <v>0.54</v>
       </c>
       <c r="Q41" t="n">
-        <v>39544496128</v>
+        <v>13891228672</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>43.14</v>
+        <v>38.08</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
@@ -4241,59 +4241,59 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TXNM</t>
+          <t>ROST</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>59.3</v>
+        <v>189.69</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>57.52 - 50.03</t>
+          <t>188.73 - 191.35</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>57.52</v>
+        <v>190.04</v>
       </c>
       <c r="F42" t="n">
-        <v>54.45</v>
+        <v>180.22</v>
       </c>
       <c r="G42" t="n">
-        <v>59.77</v>
+        <v>197.24</v>
       </c>
       <c r="H42" t="n">
-        <v>65.91</v>
+        <v>78.86</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>-0</v>
+        <v>0.05</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.16</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L42" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="M42" t="n">
-        <v>0.06</v>
+        <v>0.37</v>
       </c>
       <c r="N42" t="n">
-        <v>108921356</v>
+        <v>323444928</v>
       </c>
       <c r="O42" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="P42" t="n">
-        <v>-1.32</v>
+        <v>0.54</v>
       </c>
       <c r="Q42" t="n">
-        <v>6459036672</v>
+        <v>61692174336</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -4302,16 +4302,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>42.98</v>
+        <v>36.61</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>极度缩量(隐蔽吸筹)</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
@@ -4321,7 +4321,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
@@ -4333,59 +4333,59 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PCAR</t>
+          <t>RRR</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>119.38</v>
+        <v>61.41</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>118.86 - 120.51</t>
+          <t>61.36 - 62.21</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>119.69</v>
+        <v>61.79</v>
       </c>
       <c r="F43" t="n">
-        <v>113.51</v>
+        <v>58.61</v>
       </c>
       <c r="G43" t="n">
-        <v>126.66</v>
+        <v>64.12</v>
       </c>
       <c r="H43" t="n">
-        <v>73.40000000000001</v>
+        <v>72.78</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.39</v>
+        <v>0.46</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.4</v>
+        <v>0.41</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.19</v>
+        <v>0.02</v>
       </c>
       <c r="M43" t="n">
-        <v>0.14</v>
+        <v>1.26</v>
       </c>
       <c r="N43" t="n">
-        <v>525204359</v>
+        <v>59969558</v>
       </c>
       <c r="O43" t="n">
-        <v>0.73</v>
+        <v>0.85</v>
       </c>
       <c r="P43" t="n">
-        <v>0.11</v>
+        <v>0.39</v>
       </c>
       <c r="Q43" t="n">
-        <v>62698893312</v>
+        <v>6320335360</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -4394,16 +4394,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>41.29</v>
+        <v>36.57</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>强趋势回撤</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>trend_pullback</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
@@ -4413,7 +4413,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>防御性对冲</t>
         </is>
       </c>
     </row>
@@ -4425,59 +4425,59 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>HWM</t>
+          <t>AMGN</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>220.36</v>
+        <v>331</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>219.61 - 222.66</t>
+          <t>326.62 - 331.18</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>221.14</v>
+        <v>328.9</v>
       </c>
       <c r="F44" t="n">
-        <v>209.74</v>
+        <v>311.77</v>
       </c>
       <c r="G44" t="n">
-        <v>232.84</v>
+        <v>341.46</v>
       </c>
       <c r="H44" t="n">
-        <v>84.59</v>
+        <v>71.12</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="K44" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="L44" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="M44" t="n">
-        <v>0.3</v>
+        <v>0.82</v>
       </c>
       <c r="N44" t="n">
-        <v>402500000</v>
+        <v>538480671</v>
       </c>
       <c r="O44" t="n">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
       <c r="P44" t="n">
-        <v>0.53</v>
+        <v>0.87</v>
       </c>
       <c r="Q44" t="n">
-        <v>88694898688</v>
+        <v>178237095936</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -4486,7 +4486,7 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>40.18</v>
+        <v>36.53</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
@@ -4505,71 +4505,71 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>RVLV</t>
+          <t>CSGS</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>28.73</v>
+        <v>79.54000000000001</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>28.90 - 29.30</t>
+          <t>79.04 - 80.14</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>29.1</v>
+        <v>79.59</v>
       </c>
       <c r="F45" t="n">
-        <v>27.61</v>
+        <v>75.47</v>
       </c>
       <c r="G45" t="n">
-        <v>30.83</v>
+        <v>82.61</v>
       </c>
       <c r="H45" t="n">
-        <v>71.37</v>
+        <v>82.33</v>
       </c>
       <c r="I45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>0.93</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K45" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="L45" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="M45" t="n">
-        <v>0.12</v>
+        <v>0.29</v>
       </c>
       <c r="N45" t="n">
-        <v>40415438</v>
+        <v>28520509</v>
       </c>
       <c r="O45" t="n">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="P45" t="n">
-        <v>1.06</v>
+        <v>1.28</v>
       </c>
       <c r="Q45" t="n">
-        <v>2049432448</v>
+        <v>2268521216</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -4578,7 +4578,7 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>39.86</v>
+        <v>36.35</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>trend_pullback</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
@@ -4609,59 +4609,59 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FER</t>
+          <t>RES</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>66.34999999999999</v>
+        <v>6.08</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>66.40 - 67.31</t>
+          <t>6.08 - 6.16</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>66.86</v>
+        <v>6.12</v>
       </c>
       <c r="F46" t="n">
-        <v>63.43</v>
+        <v>5.81</v>
       </c>
       <c r="G46" t="n">
-        <v>70.73</v>
+        <v>6.35</v>
       </c>
       <c r="H46" t="n">
-        <v>81.90000000000001</v>
+        <v>68.58</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>0.3</v>
+        <v>-0.31</v>
       </c>
       <c r="K46" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="L46" t="n">
         <v>0.32</v>
       </c>
-      <c r="L46" t="n">
-        <v>0.05</v>
-      </c>
       <c r="M46" t="n">
-        <v>0.54</v>
+        <v>0.04</v>
       </c>
       <c r="N46" t="n">
-        <v>714984006</v>
+        <v>220574475</v>
       </c>
       <c r="O46" t="n">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="P46" t="n">
-        <v>-0.04</v>
+        <v>0.03</v>
       </c>
       <c r="Q46" t="n">
-        <v>47439187968</v>
+        <v>1341350656</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -4670,16 +4670,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>39.15</v>
+        <v>35.23</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>极度缩量(隐蔽吸筹)</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
@@ -4689,7 +4689,7 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>防御性对冲</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
@@ -4701,59 +4701,59 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>GXO</t>
+          <t>TJX</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>55.05</v>
+        <v>156.08</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>55.31 - 56.07</t>
+          <t>155.24 - 157.39</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>55.69</v>
+        <v>156.32</v>
       </c>
       <c r="F47" t="n">
-        <v>52.84</v>
+        <v>148.24</v>
       </c>
       <c r="G47" t="n">
-        <v>58.74</v>
+        <v>162.24</v>
       </c>
       <c r="H47" t="n">
-        <v>66.3</v>
+        <v>74.2</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>0.79</v>
+        <v>0.11</v>
       </c>
       <c r="K47" t="n">
-        <v>0.85</v>
+        <v>0.12</v>
       </c>
       <c r="L47" t="n">
         <v>0.08</v>
       </c>
       <c r="M47" t="n">
-        <v>0.03</v>
+        <v>0.58</v>
       </c>
       <c r="N47" t="n">
-        <v>114493292</v>
+        <v>1110467095</v>
       </c>
       <c r="O47" t="n">
-        <v>1.07</v>
+        <v>0.93</v>
       </c>
       <c r="P47" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="Q47" t="n">
-        <v>6302855680</v>
+        <v>173707476992</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>38.68</v>
+        <v>33.87</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>防御性对冲</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
@@ -4793,59 +4793,59 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>AMGN</t>
+          <t>OSK</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>331</v>
+        <v>148.8</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>326.62 - 331.18</t>
+          <t>149.11 - 151.16</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>328.9</v>
+        <v>150.13</v>
       </c>
       <c r="F48" t="n">
-        <v>311.77</v>
+        <v>142.43</v>
       </c>
       <c r="G48" t="n">
-        <v>341.46</v>
+        <v>155.78</v>
       </c>
       <c r="H48" t="n">
-        <v>71.12</v>
+        <v>81.95999999999999</v>
       </c>
       <c r="I48" t="n">
         <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="K48" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="L48" t="n">
-        <v>0.12</v>
+        <v>-0.02</v>
       </c>
       <c r="M48" t="n">
-        <v>0.82</v>
+        <v>0.15</v>
       </c>
       <c r="N48" t="n">
-        <v>538480671</v>
+        <v>63254319</v>
       </c>
       <c r="O48" t="n">
-        <v>0.84</v>
+        <v>0.99</v>
       </c>
       <c r="P48" t="n">
-        <v>0.87</v>
+        <v>0.62</v>
       </c>
       <c r="Q48" t="n">
-        <v>178237095936</v>
+        <v>9523247104</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -4854,7 +4854,7 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>38.36</v>
+        <v>32.87</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>防御性对冲</t>
         </is>
       </c>
     </row>
@@ -4885,59 +4885,59 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>BKH</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>929.49</v>
+        <v>72.52</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>922.02 - 934.85</t>
+          <t>71.93 - 72.93</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>928.4299999999999</v>
+        <v>72.43000000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>880.33</v>
+        <v>68.68000000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>980.27</v>
+        <v>75.18000000000001</v>
       </c>
       <c r="H49" t="n">
-        <v>80.70999999999999</v>
+        <v>75.20999999999999</v>
       </c>
       <c r="I49" t="n">
         <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="K49" t="n">
-        <v>0.18</v>
+        <v>-0.02</v>
       </c>
       <c r="L49" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M49" t="n">
-        <v>0.27</v>
+        <v>0.08</v>
       </c>
       <c r="N49" t="n">
-        <v>126186699</v>
+        <v>75473390</v>
       </c>
       <c r="O49" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="P49" t="n">
-        <v>0.8100000000000001</v>
+        <v>-0.35</v>
       </c>
       <c r="Q49" t="n">
-        <v>117621448704</v>
+        <v>5473330176</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -4946,16 +4946,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>38.12</v>
+        <v>31.51</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>强趋势回撤</t>
+          <t>底部试探</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
@@ -4977,59 +4977,59 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CACI</t>
+          <t>IQV</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>629.14</v>
+        <v>233.69</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>630.35 - 639.03</t>
+          <t>232.96 - 236.19</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>634.6900000000001</v>
+        <v>234.58</v>
       </c>
       <c r="F50" t="n">
-        <v>591.46</v>
+        <v>222.49</v>
       </c>
       <c r="G50" t="n">
-        <v>676.09</v>
+        <v>243.45</v>
       </c>
       <c r="H50" t="n">
-        <v>79.59999999999999</v>
+        <v>76.06999999999999</v>
       </c>
       <c r="I50" t="n">
         <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
       <c r="K50" t="n">
-        <v>0.06</v>
+        <v>0.24</v>
       </c>
       <c r="L50" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="M50" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="N50" t="n">
-        <v>22079710</v>
+        <v>170300000</v>
       </c>
       <c r="O50" t="n">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="P50" t="n">
-        <v>0.54</v>
+        <v>0.88</v>
       </c>
       <c r="Q50" t="n">
-        <v>13891228672</v>
+        <v>39797407744</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -5038,7 +5038,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>38.08</v>
+        <v>30.48</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>防御性对冲</t>
         </is>
       </c>
     </row>
@@ -5069,59 +5069,59 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ROST</t>
+          <t>ROK</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>189.69</v>
+        <v>404</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>188.73 - 191.35</t>
+          <t>402.85 - 408.42</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>190.04</v>
+        <v>405.64</v>
       </c>
       <c r="F51" t="n">
-        <v>180.22</v>
+        <v>384.73</v>
       </c>
       <c r="G51" t="n">
-        <v>199.9</v>
+        <v>431.45</v>
       </c>
       <c r="H51" t="n">
-        <v>78.86</v>
+        <v>77.3</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>0.05</v>
+        <v>-0.42</v>
       </c>
       <c r="K51" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.41</v>
       </c>
       <c r="L51" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="M51" t="n">
-        <v>0.37</v>
+        <v>0.2</v>
       </c>
       <c r="N51" t="n">
-        <v>323444928</v>
+        <v>112433185</v>
       </c>
       <c r="O51" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="P51" t="n">
-        <v>0.54</v>
+        <v>0.83</v>
       </c>
       <c r="Q51" t="n">
-        <v>61692174336</v>
+        <v>45423005696</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -5130,7 +5130,7 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>36.61</v>
+        <v>29.16</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>trend_pullback</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
@@ -5149,7 +5149,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>防御性对冲</t>
         </is>
       </c>
     </row>
@@ -5161,55 +5161,55 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>RRR</t>
+          <t>GAP</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>61.41</v>
+        <v>26.2</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>61.36 - 62.21</t>
+          <t>25.98 - 26.34</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>61.79</v>
+        <v>26.16</v>
       </c>
       <c r="F52" t="n">
-        <v>58.61</v>
+        <v>24.8</v>
       </c>
       <c r="G52" t="n">
-        <v>64.12</v>
+        <v>27.15</v>
       </c>
       <c r="H52" t="n">
-        <v>72.78</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="I52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>0.46</v>
+        <v>-0.14</v>
       </c>
       <c r="K52" t="n">
-        <v>0.41</v>
+        <v>-0.14</v>
       </c>
       <c r="L52" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="M52" t="n">
-        <v>1.26</v>
+        <v>0.25</v>
       </c>
       <c r="N52" t="n">
-        <v>59969558</v>
+        <v>371921740</v>
       </c>
       <c r="O52" t="n">
-        <v>0.85</v>
+        <v>0.63</v>
       </c>
       <c r="P52" t="n">
-        <v>0.39</v>
+        <v>0.5</v>
       </c>
       <c r="Q52" t="n">
-        <v>6320335360</v>
+        <v>9744349184</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>36.57</v>
+        <v>23.93</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
@@ -5253,77 +5253,77 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CSGS</t>
+          <t>AMTM</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>79.54000000000001</v>
+        <v>34.39</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>79.04 - 80.14</t>
+          <t>34.22 - 34.70</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>79.59</v>
+        <v>34.46</v>
       </c>
       <c r="F53" t="n">
-        <v>75.47</v>
+        <v>32.68</v>
       </c>
       <c r="G53" t="n">
-        <v>82.61</v>
+        <v>36.94</v>
       </c>
       <c r="H53" t="n">
-        <v>82.33</v>
+        <v>85.39</v>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J53" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="K53" t="n">
-        <v>0.09</v>
+        <v>-0.43</v>
       </c>
       <c r="L53" t="n">
-        <v>0.03</v>
+        <v>0.77</v>
       </c>
       <c r="M53" t="n">
-        <v>0.29</v>
+        <v>0.01</v>
       </c>
       <c r="N53" t="n">
-        <v>28520509</v>
+        <v>243712062</v>
       </c>
       <c r="O53" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="P53" t="n">
-        <v>1.28</v>
+        <v>1.75</v>
       </c>
       <c r="Q53" t="n">
-        <v>2268521216</v>
+        <v>8381257728</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>阶段不明，仅观察</t>
+          <t>阶段不明，小仓试探</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>36.35</v>
+        <v>100</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>极度缩量(隐蔽吸筹)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>防御性对冲</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
@@ -5345,72 +5345,72 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>RES</t>
+          <t>APG</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>6.08</v>
+        <v>42.03</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>6.08 - 6.16</t>
+          <t>42.04 - 42.62</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6.12</v>
+        <v>42.33</v>
       </c>
       <c r="F54" t="n">
-        <v>5.81</v>
+        <v>40.15</v>
       </c>
       <c r="G54" t="n">
-        <v>6.48</v>
+        <v>43.93</v>
       </c>
       <c r="H54" t="n">
-        <v>68.58</v>
+        <v>83.33</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.31</v>
+        <v>0.35</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.33</v>
+        <v>0.33</v>
       </c>
       <c r="L54" t="n">
-        <v>0.32</v>
+        <v>0.14</v>
       </c>
       <c r="M54" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="N54" t="n">
-        <v>220574475</v>
+        <v>431128083</v>
       </c>
       <c r="O54" t="n">
-        <v>0.43</v>
+        <v>0.82</v>
       </c>
       <c r="P54" t="n">
-        <v>0.03</v>
+        <v>0.8</v>
       </c>
       <c r="Q54" t="n">
-        <v>1341350656</v>
+        <v>18120312832</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>阶段不明，仅观察</t>
+          <t>阶段不明，小仓试探</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>35.23</v>
+        <v>100</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>极度缩量(隐蔽吸筹)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
@@ -5425,7 +5425,7 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
@@ -5437,77 +5437,77 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TJX</t>
+          <t>JHG</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>156.08</v>
+        <v>47.72</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>155.24 - 157.39</t>
+          <t>47.45 - 48.11</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>156.32</v>
+        <v>47.78</v>
       </c>
       <c r="F55" t="n">
-        <v>148.24</v>
+        <v>45.31</v>
       </c>
       <c r="G55" t="n">
-        <v>163.91</v>
+        <v>49.59</v>
       </c>
       <c r="H55" t="n">
-        <v>74.2</v>
+        <v>70.11</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J55" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K55" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M55" t="n">
         <v>0.11</v>
       </c>
-      <c r="K55" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.58</v>
-      </c>
       <c r="N55" t="n">
-        <v>1110467095</v>
+        <v>149399212</v>
       </c>
       <c r="O55" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="P55" t="n">
-        <v>0.53</v>
+        <v>0.86</v>
       </c>
       <c r="Q55" t="n">
-        <v>173707476992</v>
+        <v>7371614720</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>阶段不明，仅观察</t>
+          <t>阶段不明，小仓试探</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>33.87</v>
+        <v>93.29000000000001</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>极度缩量(隐蔽吸筹)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
@@ -5529,72 +5529,72 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>OSK</t>
+          <t>SBH</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>148.8</v>
+        <v>16.05</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>149.11 - 151.16</t>
+          <t>15.76 - 15.99</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>150.13</v>
+        <v>15.87</v>
       </c>
       <c r="F56" t="n">
-        <v>142.43</v>
+        <v>14.94</v>
       </c>
       <c r="G56" t="n">
-        <v>155.78</v>
+        <v>17.22</v>
       </c>
       <c r="H56" t="n">
-        <v>81.95999999999999</v>
+        <v>84.31999999999999</v>
       </c>
       <c r="I56" t="n">
         <v>2</v>
       </c>
       <c r="J56" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K56" t="n">
         <v>0.09</v>
       </c>
-      <c r="K56" t="n">
-        <v>0.1</v>
-      </c>
       <c r="L56" t="n">
-        <v>-0.02</v>
+        <v>0.01</v>
       </c>
       <c r="M56" t="n">
-        <v>0.15</v>
+        <v>0.28</v>
       </c>
       <c r="N56" t="n">
-        <v>63254319</v>
+        <v>98266491</v>
       </c>
       <c r="O56" t="n">
-        <v>0.99</v>
+        <v>1.24</v>
       </c>
       <c r="P56" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="Q56" t="n">
-        <v>9523247104</v>
+        <v>1577177088</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>阶段不明，仅观察</t>
+          <t>阶段不明，小仓试探</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>32.87</v>
+        <v>92.75</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>明确吸筹</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>防御性对冲</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
@@ -5621,72 +5621,72 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>IQV</t>
+          <t>NUE</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>233.69</v>
+        <v>174.49</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>232.96 - 236.19</t>
+          <t>172.89 - 175.30</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>234.58</v>
+        <v>174.09</v>
       </c>
       <c r="F57" t="n">
-        <v>222.49</v>
+        <v>165.04</v>
       </c>
       <c r="G57" t="n">
-        <v>248.04</v>
+        <v>184.38</v>
       </c>
       <c r="H57" t="n">
-        <v>76.06999999999999</v>
+        <v>80.20999999999999</v>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J57" t="n">
-        <v>0.16</v>
+        <v>1.43</v>
       </c>
       <c r="K57" t="n">
-        <v>0.24</v>
+        <v>1.5</v>
       </c>
       <c r="L57" t="n">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="M57" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="N57" t="n">
-        <v>170300000</v>
+        <v>228858659</v>
       </c>
       <c r="O57" t="n">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="P57" t="n">
-        <v>0.88</v>
+        <v>-0.23</v>
       </c>
       <c r="Q57" t="n">
-        <v>39797407744</v>
+        <v>39933546496</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>阶段不明，仅观察</t>
+          <t>阶段不明，小仓试探</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>32</v>
+        <v>91.45</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>明确吸筹</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
@@ -5701,7 +5701,7 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>防御性对冲</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
@@ -5713,77 +5713,77 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BKH</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>72.52</v>
+        <v>205.78</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>71.93 - 72.93</t>
+          <t>204.61 - 207.45</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>72.43000000000001</v>
+        <v>206.03</v>
       </c>
       <c r="F58" t="n">
-        <v>68.68000000000001</v>
+        <v>195.38</v>
       </c>
       <c r="G58" t="n">
-        <v>75.97</v>
+        <v>213.84</v>
       </c>
       <c r="H58" t="n">
-        <v>75.20999999999999</v>
+        <v>73.06999999999999</v>
       </c>
       <c r="I58" t="n">
         <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.02</v>
+        <v>0.18</v>
       </c>
       <c r="L58" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="M58" t="n">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="N58" t="n">
-        <v>75473390</v>
+        <v>57596887</v>
       </c>
       <c r="O58" t="n">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="P58" t="n">
-        <v>-0.35</v>
+        <v>0.65</v>
       </c>
       <c r="Q58" t="n">
-        <v>5473330176</v>
+        <v>11852288000</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>阶段不明，仅观察</t>
+          <t>阶段不明，小仓试探</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>31.51</v>
+        <v>91.06</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>底部试探</t>
+          <t>明确吸筹</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
@@ -5793,89 +5793,89 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>防御性对冲</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ROK</t>
+          <t>CDE</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>404</v>
+        <v>22.87</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>402.85 - 408.42</t>
+          <t>22.70 - 23.01</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>405.64</v>
+        <v>22.86</v>
       </c>
       <c r="F59" t="n">
-        <v>384.73</v>
+        <v>21.03</v>
       </c>
       <c r="G59" t="n">
-        <v>427.5</v>
+        <v>24.56</v>
       </c>
       <c r="H59" t="n">
-        <v>77.3</v>
+        <v>96.86</v>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.42</v>
+        <v>4.47</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.41</v>
+        <v>2.42</v>
       </c>
       <c r="L59" t="n">
-        <v>0.14</v>
+        <v>0.77</v>
       </c>
       <c r="M59" t="n">
         <v>0.2</v>
       </c>
       <c r="N59" t="n">
-        <v>112433185</v>
+        <v>642106588</v>
       </c>
       <c r="O59" t="n">
-        <v>0.87</v>
+        <v>0.8</v>
       </c>
       <c r="P59" t="n">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="Q59" t="n">
-        <v>45423005696</v>
+        <v>14687226880</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>阶段不明，仅观察</t>
+          <t>阶段不明，小仓试探</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>29.16</v>
+        <v>89.68000000000001</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>明确吸筹</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>trend_pullback</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
@@ -5885,7 +5885,7 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>防御性对冲</t>
+          <t>多头拥挤</t>
         </is>
       </c>
     </row>
@@ -5897,72 +5897,72 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ADEA</t>
+          <t>HLIO</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>19.15</v>
+        <v>64.48</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>19.02 - 19.28</t>
+          <t>64.41 - 65.30</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>19.15</v>
+        <v>64.86</v>
       </c>
       <c r="F60" t="n">
-        <v>18.16</v>
+        <v>59.92</v>
       </c>
       <c r="G60" t="n">
-        <v>19.88</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="H60" t="n">
-        <v>84.03</v>
+        <v>86.62</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>-0.54</v>
+        <v>-0.1</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.53</v>
+        <v>-0.09</v>
       </c>
       <c r="L60" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="M60" t="n">
-        <v>0.19</v>
+        <v>0.04</v>
       </c>
       <c r="N60" t="n">
-        <v>109510191</v>
+        <v>33128494</v>
       </c>
       <c r="O60" t="n">
-        <v>0.97</v>
+        <v>1.04</v>
       </c>
       <c r="P60" t="n">
-        <v>0.66</v>
+        <v>0.51</v>
       </c>
       <c r="Q60" t="n">
-        <v>2097120128</v>
+        <v>2137759744</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>阶段不明，仅观察</t>
+          <t>阶段不明，小仓试探</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>29.14</v>
+        <v>83.91</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>明确吸筹</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>防御性对冲</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
@@ -5989,77 +5989,77 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>FOX</t>
+          <t>WAB</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>65.14</v>
+        <v>227.56</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>64.83 - 65.73</t>
+          <t>225.28 - 228.42</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>65.28</v>
+        <v>226.85</v>
       </c>
       <c r="F61" t="n">
-        <v>61.91</v>
+        <v>215.07</v>
       </c>
       <c r="G61" t="n">
-        <v>68.93000000000001</v>
+        <v>235.49</v>
       </c>
       <c r="H61" t="n">
-        <v>79.98999999999999</v>
+        <v>66.22</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>-0.28</v>
+        <v>0.1</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.26</v>
+        <v>0.11</v>
       </c>
       <c r="L61" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="M61" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="N61" t="n">
-        <v>235581025</v>
+        <v>170957186</v>
       </c>
       <c r="O61" t="n">
-        <v>0.63</v>
+        <v>0.97</v>
       </c>
       <c r="P61" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="Q61" t="n">
-        <v>30675251200</v>
+        <v>38903017472</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>阶段不明，仅观察</t>
+          <t>阶段不明，小仓试探</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>26.43</v>
+        <v>71.61</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>极度缩量(隐蔽吸筹)</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>trend_pullback</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>防御性对冲</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
@@ -6081,77 +6081,77 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>GAP</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>26.2</v>
+        <v>233.27</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>25.98 - 26.34</t>
+          <t>233.65 - 236.87</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>26.16</v>
+        <v>235.26</v>
       </c>
       <c r="F62" t="n">
-        <v>24.8</v>
+        <v>223.19</v>
       </c>
       <c r="G62" t="n">
-        <v>27.15</v>
+        <v>253.83</v>
       </c>
       <c r="H62" t="n">
-        <v>72.76000000000001</v>
+        <v>82.37</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J62" t="n">
-        <v>-0.14</v>
+        <v>1.4</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.14</v>
+        <v>1.45</v>
       </c>
       <c r="L62" t="n">
-        <v>0.03</v>
+        <v>0.17</v>
       </c>
       <c r="M62" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="N62" t="n">
-        <v>371921740</v>
+        <v>293535486</v>
       </c>
       <c r="O62" t="n">
-        <v>0.63</v>
+        <v>0.92</v>
       </c>
       <c r="P62" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="Q62" t="n">
-        <v>9744349184</v>
+        <v>68625526784</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>阶段不明，仅观察</t>
+          <t>非趋势结构，仅观察</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>23.93</v>
+        <v>53.59</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>强趋势回撤</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>trend_pullback</t>
+          <t>range</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
@@ -6161,89 +6161,89 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>防御性对冲</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>JOE</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>64.11</v>
+        <v>231.92</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>63.83 - 64.72</t>
+          <t>231.28 - 234.48</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>64.27</v>
+        <v>232.88</v>
       </c>
       <c r="F63" t="n">
-        <v>60.95</v>
+        <v>214.25</v>
       </c>
       <c r="G63" t="n">
-        <v>67.81999999999999</v>
+        <v>244.8</v>
       </c>
       <c r="H63" t="n">
-        <v>79.15000000000001</v>
+        <v>87.54000000000001</v>
       </c>
       <c r="I63" t="n">
         <v>5</v>
       </c>
       <c r="J63" t="n">
-        <v>1.3</v>
+        <v>0.61</v>
       </c>
       <c r="K63" t="n">
-        <v>1.32</v>
+        <v>0.6</v>
       </c>
       <c r="L63" t="n">
-        <v>0.63</v>
+        <v>0.36</v>
       </c>
       <c r="M63" t="n">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="N63" t="n">
-        <v>57744530</v>
+        <v>1628041540</v>
       </c>
       <c r="O63" t="n">
-        <v>0.88</v>
+        <v>0.7</v>
       </c>
       <c r="P63" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
       <c r="Q63" t="n">
-        <v>3712495872</v>
+        <v>377575407616</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>阶段不明，小仓试探</t>
+          <t>非趋势结构，仅观察</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>100</v>
+        <v>45.86</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>极度缩量(隐蔽吸筹)</t>
+          <t>高位放量分歧</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
@@ -6253,7 +6253,7 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
@@ -6265,55 +6265,55 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>AMTM</t>
+          <t>FERG</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>34.39</v>
+        <v>242.62</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>34.22 - 34.70</t>
+          <t>241.96 - 245.30</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>34.46</v>
+        <v>243.63</v>
       </c>
       <c r="F64" t="n">
-        <v>32.68</v>
+        <v>231.07</v>
       </c>
       <c r="G64" t="n">
-        <v>36.62</v>
+        <v>252.84</v>
       </c>
       <c r="H64" t="n">
-        <v>85.39</v>
+        <v>73.19</v>
       </c>
       <c r="I64" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>0.54</v>
+        <v>0.21</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.43</v>
+        <v>0.24</v>
       </c>
       <c r="L64" t="n">
-        <v>0.77</v>
+        <v>0.05</v>
       </c>
       <c r="M64" t="n">
-        <v>0.01</v>
+        <v>0.33</v>
       </c>
       <c r="N64" t="n">
-        <v>243712062</v>
+        <v>200686480</v>
       </c>
       <c r="O64" t="n">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="P64" t="n">
-        <v>1.75</v>
+        <v>0.65</v>
       </c>
       <c r="Q64" t="n">
-        <v>8381257728</v>
+        <v>48713539584</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
@@ -6322,20 +6322,20 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>阶段不明，小仓试探</t>
+          <t>非趋势结构，仅观察</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>100</v>
+        <v>35.33</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>极度缩量(隐蔽吸筹)</t>
+          <t>明确吸筹</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>range</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
@@ -6345,84 +6345,84 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>APG</t>
+          <t>ORLA</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>42.03</v>
+        <v>16.89</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>42.04 - 42.62</t>
+          <t>16.54 - 16.78</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>42.33</v>
+        <v>16.66</v>
       </c>
       <c r="F65" t="n">
-        <v>40.15</v>
+        <v>15.33</v>
       </c>
       <c r="G65" t="n">
-        <v>43.93</v>
+        <v>18.38</v>
       </c>
       <c r="H65" t="n">
-        <v>83.33</v>
+        <v>94.42</v>
       </c>
       <c r="I65" t="n">
         <v>4</v>
       </c>
       <c r="J65" t="n">
-        <v>0.35</v>
+        <v>1.33</v>
       </c>
       <c r="K65" t="n">
-        <v>0.33</v>
+        <v>1.33</v>
       </c>
       <c r="L65" t="n">
-        <v>0.14</v>
+        <v>1.77</v>
       </c>
       <c r="M65" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="N65" t="n">
-        <v>431128083</v>
+        <v>339896220</v>
       </c>
       <c r="O65" t="n">
-        <v>0.82</v>
+        <v>0.76</v>
       </c>
       <c r="P65" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="Q65" t="n">
-        <v>18120312832</v>
+        <v>5740847104</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>阶段不明，小仓试探</t>
+          <t>高位阶段，风险偏大</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>100</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>极度缩量(隐蔽吸筹)</t>
+          <t>明确吸筹</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -6432,7 +6432,7 @@
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>late</t>
         </is>
       </c>
       <c r="X65" t="inlineStr">
@@ -6444,73 +6444,73 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DAKT</t>
+          <t>NEM</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>21.2</v>
+        <v>118.94</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>21.10 - 21.39</t>
+          <t>117.29 - 118.93</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>21.25</v>
+        <v>118.11</v>
       </c>
       <c r="F66" t="n">
-        <v>20.15</v>
+        <v>110.72</v>
       </c>
       <c r="G66" t="n">
-        <v>22.64</v>
+        <v>127.29</v>
       </c>
       <c r="H66" t="n">
-        <v>75.72</v>
+        <v>95.2</v>
       </c>
       <c r="I66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J66" t="n">
-        <v>-0.18</v>
+        <v>0.99</v>
       </c>
       <c r="K66" t="n">
-        <v>0.57</v>
+        <v>1.08</v>
       </c>
       <c r="L66" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M66" t="n">
-        <v>0.03</v>
+        <v>0.23</v>
       </c>
       <c r="N66" t="n">
-        <v>48747817</v>
+        <v>1091262981</v>
       </c>
       <c r="O66" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
       <c r="P66" t="n">
-        <v>0.77</v>
+        <v>1.01</v>
       </c>
       <c r="Q66" t="n">
-        <v>1033453760</v>
+        <v>130649604096</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>阶段不明，小仓试探</t>
+          <t>高位阶段，风险偏大</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>100</v>
+        <v>67.78</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
@@ -6524,12 +6524,12 @@
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>late</t>
         </is>
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
@@ -6541,68 +6541,68 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>JHG</t>
+          <t>ULTA</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>47.72</v>
+        <v>675.62</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>47.45 - 48.11</t>
+          <t>667.73 - 677.05</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>47.78</v>
+        <v>672.39</v>
       </c>
       <c r="F67" t="n">
-        <v>45.31</v>
+        <v>637.4299999999999</v>
       </c>
       <c r="G67" t="n">
-        <v>49.59</v>
+        <v>715.64</v>
       </c>
       <c r="H67" t="n">
-        <v>70.11</v>
+        <v>85</v>
       </c>
       <c r="I67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>4.2</v>
+        <v>-0.05</v>
       </c>
       <c r="K67" t="n">
-        <v>4.41</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="M67" t="n">
-        <v>0.11</v>
+        <v>0.48</v>
       </c>
       <c r="N67" t="n">
-        <v>149399212</v>
+        <v>44362172</v>
       </c>
       <c r="O67" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="P67" t="n">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="Q67" t="n">
-        <v>7371614720</v>
+        <v>30293694464</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>阶段不明，小仓试探</t>
+          <t>高位阶段，风险偏大</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>97.95</v>
+        <v>51.4</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
@@ -6616,1666 +6616,10 @@
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>late</t>
         </is>
       </c>
       <c r="X67" t="inlineStr">
-        <is>
-          <t>中性</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>LAUR</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>34.81</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>64.62 - 35.85</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>64.62</v>
-      </c>
-      <c r="F68" t="n">
-        <v>59.45</v>
-      </c>
-      <c r="G68" t="n">
-        <v>65.94</v>
-      </c>
-      <c r="H68" t="n">
-        <v>87.68000000000001</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
-      <c r="J68" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-0.59</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N68" t="n">
-        <v>147369162</v>
-      </c>
-      <c r="O68" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="P68" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>5129921024</v>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>Consumer Defensive</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>阶段不明，小仓试探</t>
-        </is>
-      </c>
-      <c r="T68" t="n">
-        <v>95.16</v>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>极度缩量(隐蔽吸筹)</t>
-        </is>
-      </c>
-      <c r="V68" t="inlineStr">
-        <is>
-          <t>strong_uptrend</t>
-        </is>
-      </c>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="X68" t="inlineStr">
-        <is>
-          <t>中性</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>SBH</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>16.05</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>15.76 - 15.99</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>15.87</v>
-      </c>
-      <c r="F69" t="n">
-        <v>14.94</v>
-      </c>
-      <c r="G69" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="H69" t="n">
-        <v>84.31999999999999</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="N69" t="n">
-        <v>98266491</v>
-      </c>
-      <c r="O69" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P69" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>1577177088</v>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>Consumer Cyclical</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>阶段不明，小仓试探</t>
-        </is>
-      </c>
-      <c r="T69" t="n">
-        <v>92.75</v>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>明确吸筹</t>
-        </is>
-      </c>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>strong_uptrend</t>
-        </is>
-      </c>
-      <c r="W69" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="X69" t="inlineStr">
-        <is>
-          <t>机构偏多</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>NUE</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>174.49</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>172.89 - 175.30</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>174.09</v>
-      </c>
-      <c r="F70" t="n">
-        <v>165.04</v>
-      </c>
-      <c r="G70" t="n">
-        <v>180.71</v>
-      </c>
-      <c r="H70" t="n">
-        <v>80.20999999999999</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N70" t="n">
-        <v>228858659</v>
-      </c>
-      <c r="O70" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="P70" t="n">
-        <v>-0.23</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>39933546496</v>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>Basic Materials</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>阶段不明，小仓试探</t>
-        </is>
-      </c>
-      <c r="T70" t="n">
-        <v>91.45</v>
-      </c>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>明确吸筹</t>
-        </is>
-      </c>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>strong_uptrend</t>
-        </is>
-      </c>
-      <c r="W70" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="X70" t="inlineStr">
-        <is>
-          <t>中性</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>CR</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>205.78</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>204.61 - 207.45</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>206.03</v>
-      </c>
-      <c r="F71" t="n">
-        <v>195.38</v>
-      </c>
-      <c r="G71" t="n">
-        <v>213.84</v>
-      </c>
-      <c r="H71" t="n">
-        <v>73.06999999999999</v>
-      </c>
-      <c r="I71" t="n">
-        <v>2</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="N71" t="n">
-        <v>57596887</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="P71" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>11852288000</v>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>阶段不明，小仓试探</t>
-        </is>
-      </c>
-      <c r="T71" t="n">
-        <v>91.06</v>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>明确吸筹</t>
-        </is>
-      </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>strong_uptrend</t>
-        </is>
-      </c>
-      <c r="W71" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="X71" t="inlineStr">
-        <is>
-          <t>机构偏多</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>CDE</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>22.87</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>22.70 - 23.01</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>22.86</v>
-      </c>
-      <c r="F72" t="n">
-        <v>21.03</v>
-      </c>
-      <c r="G72" t="n">
-        <v>26.31</v>
-      </c>
-      <c r="H72" t="n">
-        <v>96.86</v>
-      </c>
-      <c r="I72" t="n">
-        <v>4</v>
-      </c>
-      <c r="J72" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="K72" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N72" t="n">
-        <v>642106588</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="P72" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>14687226880</v>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>Basic Materials</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>阶段不明，小仓试探</t>
-        </is>
-      </c>
-      <c r="T72" t="n">
-        <v>89.68000000000001</v>
-      </c>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>明确吸筹</t>
-        </is>
-      </c>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>strong_uptrend</t>
-        </is>
-      </c>
-      <c r="W72" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="X72" t="inlineStr">
-        <is>
-          <t>多头拥挤</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>RBC</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>495.29</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>492.89 - 499.73</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>496.31</v>
-      </c>
-      <c r="F73" t="n">
-        <v>470.68</v>
-      </c>
-      <c r="G73" t="n">
-        <v>515.11</v>
-      </c>
-      <c r="H73" t="n">
-        <v>83.45999999999999</v>
-      </c>
-      <c r="I73" t="n">
-        <v>2</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="L73" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N73" t="n">
-        <v>31611442</v>
-      </c>
-      <c r="O73" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P73" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>15656830976</v>
-      </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>阶段不明，小仓试探</t>
-        </is>
-      </c>
-      <c r="T73" t="n">
-        <v>85.94</v>
-      </c>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t>明确吸筹</t>
-        </is>
-      </c>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t>strong_uptrend</t>
-        </is>
-      </c>
-      <c r="W73" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="X73" t="inlineStr">
-        <is>
-          <t>中性</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>HLIO</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>64.48</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>64.41 - 65.30</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>64.86</v>
-      </c>
-      <c r="F74" t="n">
-        <v>59.92</v>
-      </c>
-      <c r="G74" t="n">
-        <v>67.31</v>
-      </c>
-      <c r="H74" t="n">
-        <v>86.62</v>
-      </c>
-      <c r="I74" t="n">
-        <v>2</v>
-      </c>
-      <c r="J74" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="K74" t="n">
-        <v>-0.09</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N74" t="n">
-        <v>33128494</v>
-      </c>
-      <c r="O74" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P74" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>2137759744</v>
-      </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>阶段不明，小仓试探</t>
-        </is>
-      </c>
-      <c r="T74" t="n">
-        <v>83.91</v>
-      </c>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>明确吸筹</t>
-        </is>
-      </c>
-      <c r="V74" t="inlineStr">
-        <is>
-          <t>strong_uptrend</t>
-        </is>
-      </c>
-      <c r="W74" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="X74" t="inlineStr">
-        <is>
-          <t>中性</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>WAB</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>227.56</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>225.28 - 228.42</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>226.85</v>
-      </c>
-      <c r="F75" t="n">
-        <v>215.07</v>
-      </c>
-      <c r="G75" t="n">
-        <v>235.49</v>
-      </c>
-      <c r="H75" t="n">
-        <v>66.22</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="N75" t="n">
-        <v>170957186</v>
-      </c>
-      <c r="O75" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="P75" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>38903017472</v>
-      </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>阶段不明，小仓试探</t>
-        </is>
-      </c>
-      <c r="T75" t="n">
-        <v>71.61</v>
-      </c>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>极度缩量(隐蔽吸筹)</t>
-        </is>
-      </c>
-      <c r="V75" t="inlineStr">
-        <is>
-          <t>strong_uptrend</t>
-        </is>
-      </c>
-      <c r="W75" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="X75" t="inlineStr">
-        <is>
-          <t>中性</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>PAHC</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>41.08</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>40.95 - 41.51</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>41.23</v>
-      </c>
-      <c r="F76" t="n">
-        <v>39.07</v>
-      </c>
-      <c r="G76" t="n">
-        <v>62.15</v>
-      </c>
-      <c r="H76" t="n">
-        <v>87.56</v>
-      </c>
-      <c r="I76" t="n">
-        <v>5</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="K76" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="N76" t="n">
-        <v>20447574</v>
-      </c>
-      <c r="O76" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="P76" t="n">
-        <v>-1.46</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>1665120640</v>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>非趋势结构，仅观察</t>
-        </is>
-      </c>
-      <c r="T76" t="n">
-        <v>56.96</v>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>底部试探</t>
-        </is>
-      </c>
-      <c r="V76" t="inlineStr">
-        <is>
-          <t>range</t>
-        </is>
-      </c>
-      <c r="W76" t="inlineStr">
-        <is>
-          <t>distribution</t>
-        </is>
-      </c>
-      <c r="X76" t="inlineStr">
-        <is>
-          <t>机构偏多</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>TEL</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>233.27</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>233.65 - 236.87</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>235.26</v>
-      </c>
-      <c r="F77" t="n">
-        <v>223.19</v>
-      </c>
-      <c r="G77" t="n">
-        <v>254.56</v>
-      </c>
-      <c r="H77" t="n">
-        <v>82.37</v>
-      </c>
-      <c r="I77" t="n">
-        <v>4</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="K77" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="N77" t="n">
-        <v>293535486</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="P77" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>68625526784</v>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>非趋势结构，仅观察</t>
-        </is>
-      </c>
-      <c r="T77" t="n">
-        <v>53.59</v>
-      </c>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>强趋势回撤</t>
-        </is>
-      </c>
-      <c r="V77" t="inlineStr">
-        <is>
-          <t>range</t>
-        </is>
-      </c>
-      <c r="W77" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="X77" t="inlineStr">
-        <is>
-          <t>机构偏多</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>SIG</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>93.44</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>92.97 - 94.26</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>93.62</v>
-      </c>
-      <c r="F78" t="n">
-        <v>86.13</v>
-      </c>
-      <c r="G78" t="n">
-        <v>98.72</v>
-      </c>
-      <c r="H78" t="n">
-        <v>79.62</v>
-      </c>
-      <c r="I78" t="n">
-        <v>5</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="K78" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="N78" t="n">
-        <v>40684442</v>
-      </c>
-      <c r="O78" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P78" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>3826261504</v>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>Consumer Cyclical</t>
-        </is>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>非趋势结构，仅观察</t>
-        </is>
-      </c>
-      <c r="T78" t="n">
-        <v>51.59</v>
-      </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>量价中性</t>
-        </is>
-      </c>
-      <c r="V78" t="inlineStr">
-        <is>
-          <t>range</t>
-        </is>
-      </c>
-      <c r="W78" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="X78" t="inlineStr">
-        <is>
-          <t>机构偏多</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>AMD</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>231.92</v>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>231.28 - 234.48</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>232.88</v>
-      </c>
-      <c r="F79" t="n">
-        <v>214.25</v>
-      </c>
-      <c r="G79" t="n">
-        <v>241.68</v>
-      </c>
-      <c r="H79" t="n">
-        <v>87.54000000000001</v>
-      </c>
-      <c r="I79" t="n">
-        <v>5</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N79" t="n">
-        <v>1628041540</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="P79" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>377575407616</v>
-      </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="S79" t="inlineStr">
-        <is>
-          <t>非趋势结构，仅观察</t>
-        </is>
-      </c>
-      <c r="T79" t="n">
-        <v>45.86</v>
-      </c>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t>高位放量分歧</t>
-        </is>
-      </c>
-      <c r="V79" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="W79" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="X79" t="inlineStr">
-        <is>
-          <t>中性</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>FERG</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>242.62</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>241.96 - 245.30</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>243.63</v>
-      </c>
-      <c r="F80" t="n">
-        <v>231.07</v>
-      </c>
-      <c r="G80" t="n">
-        <v>252.84</v>
-      </c>
-      <c r="H80" t="n">
-        <v>73.19</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="N80" t="n">
-        <v>200686480</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="P80" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>48713539584</v>
-      </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>非趋势结构，仅观察</t>
-        </is>
-      </c>
-      <c r="T80" t="n">
-        <v>35.33</v>
-      </c>
-      <c r="U80" t="inlineStr">
-        <is>
-          <t>明确吸筹</t>
-        </is>
-      </c>
-      <c r="V80" t="inlineStr">
-        <is>
-          <t>range</t>
-        </is>
-      </c>
-      <c r="W80" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="X80" t="inlineStr">
-        <is>
-          <t>中性</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>TPB</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>117.52</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>232.07 - 121.05</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>232.07</v>
-      </c>
-      <c r="F81" t="n">
-        <v>213.5</v>
-      </c>
-      <c r="G81" t="n">
-        <v>236.53</v>
-      </c>
-      <c r="H81" t="n">
-        <v>89.92</v>
-      </c>
-      <c r="I81" t="n">
-        <v>5</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="L81" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N81" t="n">
-        <v>19070757</v>
-      </c>
-      <c r="O81" t="n">
-        <v>1</v>
-      </c>
-      <c r="P81" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>2241195264</v>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>Consumer Defensive</t>
-        </is>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>高位阶段，风险偏大</t>
-        </is>
-      </c>
-      <c r="T81" t="n">
-        <v>72.7</v>
-      </c>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>明确吸筹</t>
-        </is>
-      </c>
-      <c r="V81" t="inlineStr">
-        <is>
-          <t>strong_uptrend</t>
-        </is>
-      </c>
-      <c r="W81" t="inlineStr">
-        <is>
-          <t>late</t>
-        </is>
-      </c>
-      <c r="X81" t="inlineStr">
-        <is>
-          <t>机构偏多</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>ORLA</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>16.89</v>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>16.54 - 16.78</t>
-        </is>
-      </c>
-      <c r="E82" t="n">
-        <v>16.66</v>
-      </c>
-      <c r="F82" t="n">
-        <v>15.33</v>
-      </c>
-      <c r="G82" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="H82" t="n">
-        <v>94.42</v>
-      </c>
-      <c r="I82" t="n">
-        <v>4</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="K82" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="L82" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N82" t="n">
-        <v>339896220</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="P82" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>5740847104</v>
-      </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>Basic Materials</t>
-        </is>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>高位阶段，风险偏大</t>
-        </is>
-      </c>
-      <c r="T82" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>明确吸筹</t>
-        </is>
-      </c>
-      <c r="V82" t="inlineStr">
-        <is>
-          <t>strong_uptrend</t>
-        </is>
-      </c>
-      <c r="W82" t="inlineStr">
-        <is>
-          <t>late</t>
-        </is>
-      </c>
-      <c r="X82" t="inlineStr">
-        <is>
-          <t>机构偏多</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>NEM</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>118.94</v>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>117.29 - 118.93</t>
-        </is>
-      </c>
-      <c r="E83" t="n">
-        <v>118.11</v>
-      </c>
-      <c r="F83" t="n">
-        <v>110.72</v>
-      </c>
-      <c r="G83" t="n">
-        <v>122.62</v>
-      </c>
-      <c r="H83" t="n">
-        <v>95.2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>5</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="K83" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="N83" t="n">
-        <v>1091262981</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="P83" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>130649604096</v>
-      </c>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>Basic Materials</t>
-        </is>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>高位阶段，风险偏大</t>
-        </is>
-      </c>
-      <c r="T83" t="n">
-        <v>67.78</v>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>明确吸筹</t>
-        </is>
-      </c>
-      <c r="V83" t="inlineStr">
-        <is>
-          <t>strong_uptrend</t>
-        </is>
-      </c>
-      <c r="W83" t="inlineStr">
-        <is>
-          <t>late</t>
-        </is>
-      </c>
-      <c r="X83" t="inlineStr">
-        <is>
-          <t>中性</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>ALNT</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>61.17</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>60.75 - 61.59</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>61.17</v>
-      </c>
-      <c r="F84" t="n">
-        <v>58</v>
-      </c>
-      <c r="G84" t="n">
-        <v>63.49</v>
-      </c>
-      <c r="H84" t="n">
-        <v>92.09999999999999</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="K84" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="N84" t="n">
-        <v>16943497</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="P84" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>1036433600</v>
-      </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>高位阶段，风险偏大</t>
-        </is>
-      </c>
-      <c r="T84" t="n">
-        <v>67.19</v>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>明确吸筹</t>
-        </is>
-      </c>
-      <c r="V84" t="inlineStr">
-        <is>
-          <t>strong_uptrend</t>
-        </is>
-      </c>
-      <c r="W84" t="inlineStr">
-        <is>
-          <t>late</t>
-        </is>
-      </c>
-      <c r="X84" t="inlineStr">
-        <is>
-          <t>中性</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>ULTA</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>675.62</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>667.73 - 677.05</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
-        <v>672.39</v>
-      </c>
-      <c r="F85" t="n">
-        <v>637.4299999999999</v>
-      </c>
-      <c r="G85" t="n">
-        <v>698.03</v>
-      </c>
-      <c r="H85" t="n">
-        <v>85</v>
-      </c>
-      <c r="I85" t="n">
-        <v>2</v>
-      </c>
-      <c r="J85" t="n">
-        <v>-0.05</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="N85" t="n">
-        <v>44362172</v>
-      </c>
-      <c r="O85" t="n">
-        <v>1</v>
-      </c>
-      <c r="P85" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>30293694464</v>
-      </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>Consumer Cyclical</t>
-        </is>
-      </c>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>高位阶段，风险偏大</t>
-        </is>
-      </c>
-      <c r="T85" t="n">
-        <v>51.4</v>
-      </c>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>极度缩量(隐蔽吸筹)</t>
-        </is>
-      </c>
-      <c r="V85" t="inlineStr">
-        <is>
-          <t>strong_uptrend</t>
-        </is>
-      </c>
-      <c r="W85" t="inlineStr">
-        <is>
-          <t>late</t>
-        </is>
-      </c>
-      <c r="X85" t="inlineStr">
         <is>
           <t>中性</t>
         </is>
